--- a/compte_rendu/test_bombe.xlsx
+++ b/compte_rendu/test_bombe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\tipe_ktane\compte_rendu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{282C3877-3414-453D-8971-59613A579815}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D193279-B16E-4D54-8064-B01BDBA2F766}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
  entre les lettres</t>
   </si>
   <si>
-    <t>Résolution bug boutton keyboard</t>
-  </si>
-  <si>
     <t>Manuel non clair</t>
   </si>
   <si>
@@ -102,70 +99,73 @@
  entre les lettres</t>
   </si>
   <si>
-    <t>Changements : role + 
+    <t>Confusion entre "1" et "l"</t>
+  </si>
+  <si>
+    <t>"l" devenu "L"</t>
+  </si>
+  <si>
+    <t>Déchiffrage led trop facile</t>
+  </si>
+  <si>
+    <t>Rajout du diagramme (2nde partie
+module keyboard)</t>
+  </si>
+  <si>
+    <t>Rajout schémas module</t>
+  </si>
+  <si>
+    <t>Rajout sens bouton
+ keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajout : led erreur / validation du 
+morse / compte morse / </t>
+  </si>
+  <si>
+    <t>Thibault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morse : mieux </t>
+  </si>
+  <si>
+    <t>Pas le temps pour
+le piano</t>
+  </si>
+  <si>
+    <t>6 (explosée)</t>
+  </si>
+  <si>
+    <t>Trouvée : 6'
+restantes</t>
+  </si>
+  <si>
+    <t>1'30</t>
+  </si>
+  <si>
+    <t>Trouvée : 2'30
+ restantes</t>
+  </si>
+  <si>
+    <t>2'</t>
+  </si>
+  <si>
+    <t>Beaucoup trop facile le
+morse pour Thibault</t>
+  </si>
+  <si>
+    <t>Résolution bug bouton keyboard</t>
+  </si>
+  <si>
+    <t>Changements : rôle + 
 clair des deux joueurs / morse tourne 
 continuellement</t>
-  </si>
-  <si>
-    <t>Confusion entre "1" et "l"</t>
-  </si>
-  <si>
-    <t>"l" devenu "L"</t>
-  </si>
-  <si>
-    <t>Déchiffrage led trop facile</t>
-  </si>
-  <si>
-    <t>Rajout du diagramme (2nde partie
-module keyboard)</t>
-  </si>
-  <si>
-    <t>Rajout schémas module</t>
-  </si>
-  <si>
-    <t>Rajout sens bouton
- keyboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajout : led erreur / validation du 
-morse / compte morse / </t>
-  </si>
-  <si>
-    <t>Thibault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morse : mieux </t>
-  </si>
-  <si>
-    <t>Pas le temps pour
-le piano</t>
-  </si>
-  <si>
-    <t>6 (explosée)</t>
-  </si>
-  <si>
-    <t>Trouvée : 6'
-restantes</t>
-  </si>
-  <si>
-    <t>1'30</t>
-  </si>
-  <si>
-    <t>Trouvée : 2'30
- restantes</t>
-  </si>
-  <si>
-    <t>2'</t>
-  </si>
-  <si>
-    <t>Beaucoup trop facile le
-morse pour Thibault</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,44 +256,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -610,303 +610,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="5" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="5" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="8" t="s">
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="8">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="8"/>
       <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="11">
-        <v>3</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="11">
-        <v>3</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="11">
-        <v>4</v>
-      </c>
-      <c r="H10" s="11">
-        <v>2</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -921,35 +921,35 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="N12" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="4"/>
@@ -957,64 +957,64 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>9</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="11">
-        <v>5</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12" t="s">
+      <c r="H18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1029,7 +1029,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1045,7 +1045,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
